--- a/StructureDefinition-profile-ConceptMap.xlsx
+++ b/StructureDefinition-profile-ConceptMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6527731-06:00</t>
+    <t>2026-02-09T22:05:43.0399755-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,38 +416,297 @@
     <t>ConceptMap.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which ConceptMap is more current.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.versionAlgorithm[x]` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.copyrightLabel` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.approvalDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.approvalDate` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.lastReviewDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.lastReviewDate` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.effectivePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the ConceptMap content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.effectivePeriod` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:topic</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.topic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.topic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Descriptions related to the content of the ConceptMap. Topics provide a high-level categorization as well as keywords for the ConceptMap that can be useful for filtering and searching.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.topic` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.author|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individiual or organization primarily involved in the creation and maintenance of the ConceptMap.</t>
+  </si>
+  <si>
+    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
+Element `ConceptMap.author` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:editor</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.editor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.editor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for internal coherence of the ConceptMap.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.editor` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:reviewer</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.reviewer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.reviewer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the ConceptMap.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.reviewer` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:endorser</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.endorser|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.endorser from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the ConceptMap for use in some setting.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.endorser` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.relatedArtifact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.relatedArtifact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.relatedArtifact` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property defines a slot through which additional information can be provided about a map from source -&gt; target.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.property` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:additionalAttribute</t>
+  </si>
+  <si>
+    <t>additionalAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.additionalAttribute|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.additionalAttribute from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An additionalAttribute defines an additional data element found in the source or target data model where the data will come from or be mapped to. Some mappings are based on data in addition to the source data element, where codes in multiple fields are combined to a single field (or vice versa).</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.additionalAttribute` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ConceptMap.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -843,6 +1102,9 @@
     <t>ConceptMap.group.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -927,6 +1189,26 @@
     <t>ConceptMap.group.element.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.extension:valueSet</t>
+  </si>
+  <si>
+    <t>valueSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.valueSet from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ValueSet in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ConceptMap.group.element.valueSet` is will have a context of ConceptMap.group.element based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.modifierExtension</t>
   </si>
   <si>
@@ -973,6 +1255,32 @@
     <t>ConceptMap.group.element.target.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.target.extension:property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.target.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property value for this source -&gt; target mapping.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.element.target.property` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.element.target.extension:valueSet</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.target.valueSet from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.target.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ConceptMap.group.element.target.valueSet` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.target.modifierExtension</t>
   </si>
   <si>
@@ -1018,17 +1326,10 @@
     <t>ConceptMap.group.element.target.equivalence.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>ConceptMap.group.element.target.equivalence.extension:noMap</t>
+  </si>
+  <si>
+    <t>noMap</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.noMap|0.0.1-snapshot-3}
@@ -1041,11 +1342,7 @@
     <t>If noMap = true this indicates that no mapping to a target concept exists for this source concept.</t>
   </si>
   <si>
-    <t>If noMap = true, then the behavior of ConceptMap.group.unmapped (if present) does not apply.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `ConceptMap.group.element.noMap` is mapped to FHIR R4 element `ConceptMap.group.element.target.equivalence`.</t>
   </si>
   <si>
     <t>ConceptMap.group.element.target.equivalence.value</t>
@@ -1085,6 +1382,12 @@
     <t>ConceptMap.group.element.target.dependsOn.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.target.dependsOn.extension:dependsOn</t>
+  </si>
+  <si>
+    <t>dependsOn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.dependsOn|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1095,6 +1398,9 @@
     <t>A set of additional dependencies for this mapping to hold. This mapping is only applicable if the specified data attribute can be resolved, and it has the specified value.</t>
   </si>
   <si>
+    <t>Element `ConceptMap.group.element.target.dependsOn` is mapped to FHIR R4 element `ConceptMap.group.element.target.dependsOn`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.target.dependsOn.modifierExtension</t>
   </si>
   <si>
@@ -1153,6 +1459,12 @@
     <t>ConceptMap.group.element.target.product.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.target.product.extension:product</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.product|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1163,6 +1475,9 @@
     <t>Product is the output of a ConceptMap that provides additional values that go in other attributes / data elemnts of the target data.</t>
   </si>
   <si>
+    <t>Element `ConceptMap.group.element.target.product` is mapped to FHIR R4 element `ConceptMap.group.element.target.product`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.target.product.modifierExtension</t>
   </si>
   <si>
@@ -1198,6 +1513,35 @@
   </si>
   <si>
     <t>ConceptMap.group.unmapped.extension</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.unmapped.extension:relationship</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.unmapped.relationship|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.unmapped.relationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The default relationship value to apply between the source and target concepts when the source code is unmapped and the mode is 'fixed' or 'use-source-code'.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.unmapped.relationship` is will have a context of ConceptMap.group.unmapped based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.unmapped.extension:valueSet</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.unmapped.valueSet from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.unmapped.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ConceptMap.group.unmapped.valueSet` is will have a context of ConceptMap.group.unmapped based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.group.unmapped.modifierExtension</t>
@@ -1547,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1556,9 +1900,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.30859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2522,7 +2866,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2541,17 +2885,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2588,16 +2930,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2615,7 +2955,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2632,43 +2972,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2716,7 +3056,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2725,13 +3065,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2745,12 +3085,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2768,23 +3110,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2832,28 +3172,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2861,12 +3201,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2884,23 +3226,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2948,41 +3288,43 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3000,7 +3342,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>158</v>
@@ -3062,28 +3404,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3091,12 +3433,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3114,10 +3458,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>165</v>
@@ -3128,9 +3472,7 @@
       <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3178,19 +3520,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3207,12 +3549,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3221,7 +3565,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3230,10 +3574,10 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -3292,25 +3636,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3321,42 +3665,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3382,13 +3728,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3406,28 +3752,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3435,12 +3781,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3449,7 +3797,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3458,23 +3806,21 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3522,28 +3868,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3551,21 +3897,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3574,19 +3922,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3636,28 +3984,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3665,12 +4013,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3679,7 +4029,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3688,23 +4038,21 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3752,28 +4100,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3781,12 +4129,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3804,19 +4154,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3866,7 +4216,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3875,16 +4225,16 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3895,12 +4245,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3909,7 +4261,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3921,16 +4273,16 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3980,25 +4332,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4009,12 +4361,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4032,23 +4386,21 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4096,7 +4448,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4105,16 +4457,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4125,14 +4477,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4145,24 +4497,26 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4186,13 +4540,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4210,7 +4564,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4222,13 +4576,13 @@
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4239,10 +4593,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4262,21 +4616,23 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4324,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4342,25 +4698,25 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4376,22 +4732,22 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4796,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4458,21 +4814,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4495,16 +4851,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4554,7 +4910,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4572,10 +4928,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4583,10 +4939,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4609,18 +4965,20 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4668,7 +5026,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4677,7 +5035,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4697,10 +5055,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4711,7 +5069,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4720,18 +5078,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4780,13 +5140,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4798,7 +5158,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4809,10 +5169,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4820,7 +5180,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4829,21 +5189,23 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4868,13 +5230,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4892,10 +5254,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4904,16 +5266,16 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4928,14 +5290,14 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4944,21 +5306,23 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5006,28 +5370,28 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5035,46 +5399,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5128,22 +5490,22 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5151,10 +5513,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5174,21 +5536,23 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5236,7 +5600,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5254,10 +5618,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5265,10 +5629,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5279,7 +5643,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5288,19 +5652,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5350,13 +5714,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5368,7 +5732,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5379,10 +5743,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5405,16 +5769,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5464,7 +5828,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5479,10 +5843,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5493,10 +5857,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5507,7 +5871,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5516,21 +5880,23 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5578,13 +5944,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5596,7 +5962,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5607,18 +5973,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5630,19 +5996,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5668,13 +6034,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5692,10 +6058,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -5710,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5721,10 +6087,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5747,15 +6113,17 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5804,7 +6172,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5816,38 +6184,38 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5859,18 +6227,20 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5918,75 +6288,73 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6034,22 +6402,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6063,10 +6431,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6086,18 +6454,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6146,7 +6516,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6175,10 +6545,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6189,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6201,17 +6571,15 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6260,13 +6628,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6289,10 +6657,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6303,7 +6671,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6315,17 +6683,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6374,22 +6740,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6403,21 +6769,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6429,15 +6795,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6486,22 +6854,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6515,14 +6883,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6535,24 +6903,26 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6600,7 +6970,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6615,7 +6985,7 @@
         <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6629,46 +6999,44 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6716,22 +7084,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6745,10 +7113,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6771,15 +7139,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6828,7 +7198,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6857,10 +7227,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6883,16 +7253,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6942,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6971,10 +7341,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6982,7 +7352,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -6991,22 +7361,22 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7032,13 +7402,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7056,10 +7426,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>86</v>
@@ -7085,21 +7455,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7111,15 +7481,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7168,19 +7540,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7197,10 +7569,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7208,11 +7580,11 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7223,13 +7595,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7268,32 +7640,34 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7307,10 +7681,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7321,7 +7695,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7333,17 +7707,15 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7380,19 +7752,17 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7401,7 +7771,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>136</v>
@@ -7421,12 +7791,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7447,15 +7819,17 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7504,19 +7878,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7533,42 +7907,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7616,22 +7994,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7645,10 +8023,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7659,7 +8037,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7671,13 +8049,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7728,13 +8106,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -7757,10 +8135,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7783,15 +8161,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>261</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7840,7 +8220,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7852,10 +8232,10 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -7869,10 +8249,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7880,7 +8260,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -7895,15 +8275,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7940,17 +8322,19 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7962,7 +8346,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>393</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -7979,10 +8363,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7993,7 +8377,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8005,13 +8389,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8062,22 +8446,22 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8091,14 +8475,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8111,26 +8495,22 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8166,19 +8546,17 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8193,7 +8571,7 @@
         <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8207,21 +8585,23 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8233,15 +8613,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8290,19 +8672,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8319,12 +8701,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8345,22 +8729,22 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8404,19 +8788,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8433,42 +8817,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8516,22 +8904,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8545,10 +8933,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8571,17 +8959,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8630,7 +9016,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8659,10 +9045,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8673,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8685,15 +9071,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8742,13 +9130,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8771,10 +9159,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8782,7 +9170,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>86</v>
@@ -8791,21 +9179,23 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8830,13 +9220,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -8854,10 +9244,10 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>86</v>
@@ -8866,10 +9256,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -8883,10 +9273,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8894,11 +9284,11 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
@@ -8909,13 +9299,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>324</v>
+        <v>417</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8954,29 +9344,31 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8993,10 +9385,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9019,13 +9411,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9064,19 +9456,17 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9085,7 +9475,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>136</v>
@@ -9105,46 +9495,46 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>270</v>
+        <v>422</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9192,7 +9582,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9201,13 +9591,13 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9221,10 +9611,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9232,7 +9622,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9247,13 +9637,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9304,10 +9694,10 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9316,7 +9706,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9333,10 +9723,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9359,22 +9749,20 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>355</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9418,7 +9806,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9427,7 +9815,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -9447,10 +9835,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9458,10 +9846,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9473,13 +9861,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>357</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9530,13 +9918,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -9559,10 +9947,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9585,17 +9973,15 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9644,7 +10030,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9656,10 +10042,10 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9673,10 +10059,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9687,7 +10073,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9699,17 +10085,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9746,31 +10130,29 @@
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>378</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9787,12 +10169,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -9801,7 +10185,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -9813,15 +10197,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>158</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>261</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9870,22 +10256,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -9899,14 +10285,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9919,24 +10305,26 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -9984,7 +10372,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9999,7 +10387,7 @@
         <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10013,46 +10401,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>445</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10100,22 +10484,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10129,10 +10513,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10140,7 +10524,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -10155,20 +10539,22 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>106</v>
+        <v>448</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="R76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10188,13 +10574,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10212,10 +10598,10 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>86</v>
@@ -10241,10 +10627,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10252,7 +10638,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>86</v>
@@ -10267,13 +10653,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10324,10 +10710,10 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>86</v>
@@ -10353,10 +10739,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10379,16 +10765,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10438,7 +10824,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10467,10 +10853,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10481,7 +10867,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10493,13 +10879,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10550,13 +10936,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10574,6 +10960,2046 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC81" s="2"/>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC90" s="2"/>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ConceptMap.xlsx
+++ b/StructureDefinition-profile-ConceptMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0399755-06:00</t>
+    <t>2026-02-17T14:42:26.7693163-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Indicates the mechanism used to compare versions to determine which ConceptMap is more current.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.versionAlgorithm[x]` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.versionAlgorithm[x]` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ConceptMap.copyrightLabel` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.copyrightLabel` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:approvalDate</t>
@@ -498,7 +498,7 @@
     <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.approvalDate` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.approvalDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:lastReviewDate</t>
@@ -517,7 +517,7 @@
     <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.lastReviewDate` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.lastReviewDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:effectivePeriod</t>
@@ -536,7 +536,7 @@
     <t>The period during which the ConceptMap content was or is planned to be in active use.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.effectivePeriod` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.effectivePeriod` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:topic</t>
@@ -555,7 +555,7 @@
     <t>Descriptions related to the content of the ConceptMap. Topics provide a high-level categorization as well as keywords for the ConceptMap that can be useful for filtering and searching.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.topic` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.topic` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:author</t>
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `ConceptMap.author` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.author` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:editor</t>
@@ -594,7 +594,7 @@
     <t>An individual or organization primarily responsible for internal coherence of the ConceptMap.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.editor` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.editor` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:reviewer</t>
@@ -613,7 +613,7 @@
     <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the ConceptMap.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.reviewer` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.reviewer` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:endorser</t>
@@ -632,7 +632,7 @@
     <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the ConceptMap for use in some setting.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.endorser` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.endorser` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:relatedArtifact</t>
@@ -651,7 +651,7 @@
     <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.relatedArtifact` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.relatedArtifact` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:property</t>
@@ -670,7 +670,7 @@
     <t>A property defines a slot through which additional information can be provided about a map from source -&gt; target.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.property` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:additionalAttribute</t>
@@ -689,7 +689,7 @@
     <t>An additionalAttribute defines an additional data element found in the source or target data model where the data will come from or be mapped to. Some mappings are based on data in addition to the source data element, where codes in multiple fields are combined to a single field (or vice versa).</t>
   </si>
   <si>
-    <t>Element `ConceptMap.additionalAttribute` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.additionalAttribute` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.modifierExtension</t>
@@ -1102,13 +1102,23 @@
     <t>ConceptMap.group.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group` has is mapped to FHIR R4 element `ConceptMap.group`, but has no comparisons.</t>
   </si>
   <si>
     <t>ConceptMap.group.modifierExtension</t>
@@ -1189,24 +1199,10 @@
     <t>ConceptMap.group.element.extension</t>
   </si>
   <si>
-    <t>ConceptMap.group.element.extension:valueSet</t>
-  </si>
-  <si>
-    <t>valueSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.valueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ValueSet in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ConceptMap.group.element.valueSet` is will have a context of ConceptMap.group.element based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ConceptMap.group.element.modifierExtension</t>
@@ -1255,32 +1251,6 @@
     <t>ConceptMap.group.element.target.extension</t>
   </si>
   <si>
-    <t>ConceptMap.group.element.target.extension:property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.property|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.target.property from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A property value for this source -&gt; target mapping.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group.element.target.property` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.extension:valueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.target.valueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.element.target.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ConceptMap.group.element.target.valueSet` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
     <t>ConceptMap.group.element.target.modifierExtension</t>
   </si>
   <si>
@@ -1312,46 +1282,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/concept-map-equivalence|4.0.1</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.equivalence.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.equivalence.extension</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.equivalence.extension:noMap</t>
-  </si>
-  <si>
-    <t>noMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.noMap|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.noMap from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>If noMap = true this indicates that no mapping to a target concept exists for this source concept.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group.element.noMap` is mapped to FHIR R4 element `ConceptMap.group.element.target.equivalence`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.equivalence.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>ConceptMap.group.element.target.comment</t>
@@ -1382,25 +1312,6 @@
     <t>ConceptMap.group.element.target.dependsOn.extension</t>
   </si>
   <si>
-    <t>ConceptMap.group.element.target.dependsOn.extension:dependsOn</t>
-  </si>
-  <si>
-    <t>dependsOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.dependsOn|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.target.dependsOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A set of additional dependencies for this mapping to hold. This mapping is only applicable if the specified data attribute can be resolved, and it has the specified value.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group.element.target.dependsOn` is mapped to FHIR R4 element `ConceptMap.group.element.target.dependsOn`.</t>
-  </si>
-  <si>
     <t>ConceptMap.group.element.target.dependsOn.modifierExtension</t>
   </si>
   <si>
@@ -1453,46 +1364,6 @@
     <t>A set of additional outcomes from this mapping to other elements. To properly execute this mapping, the specified element must be mapped to some data element or source that is in context. The mapping may still be useful without a place for the additional data elements, but the equivalence cannot be relied on.</t>
   </si>
   <si>
-    <t>ConceptMap.group.element.target.product.id</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.extension</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.extension:product</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.product|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.element.target.product from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Product is the output of a ConceptMap that provides additional values that go in other attributes / data elemnts of the target data.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group.element.target.product` is mapped to FHIR R4 element `ConceptMap.group.element.target.product`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.modifierExtension</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.property</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.system</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.value</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.element.target.product.display</t>
-  </si>
-  <si>
     <t>ConceptMap.group.unmapped</t>
   </si>
   <si>
@@ -1513,35 +1384,6 @@
   </si>
   <si>
     <t>ConceptMap.group.unmapped.extension</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.unmapped.extension:relationship</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.unmapped.relationship|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.unmapped.relationship from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The default relationship value to apply between the source and target concepts when the source code is unmapped and the mode is 'fixed' or 'use-source-code'.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group.unmapped.relationship` is will have a context of ConceptMap.group.unmapped based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.unmapped.extension:valueSet</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group.unmapped.valueSet from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.group.unmapped.valueSet` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ConceptMap.group.unmapped.valueSet` is will have a context of ConceptMap.group.unmapped based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.group.unmapped.modifierExtension</t>
@@ -1891,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1900,7 +1742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.79296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.8515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.30859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1910,7 +1752,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6776,7 +6618,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6798,14 +6640,12 @@
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6842,19 +6682,17 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6869,7 +6707,7 @@
         <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6883,14 +6721,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6903,26 +6743,24 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6970,7 +6808,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6979,13 +6817,13 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6999,44 +6837,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7084,22 +6924,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7113,10 +6953,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7139,16 +6979,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7198,7 +7038,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7227,10 +7067,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7253,16 +7093,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7312,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7341,10 +7181,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7367,16 +7207,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7426,7 +7266,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7455,22 +7295,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7481,16 +7321,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7540,13 +7380,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7569,21 +7409,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7595,15 +7435,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7652,22 +7494,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7681,10 +7523,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7695,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7707,13 +7549,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7752,32 +7594,34 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7791,23 +7635,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7819,7 +7661,7 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>378</v>
@@ -7828,7 +7670,7 @@
         <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7878,7 +7720,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7893,7 +7735,7 @@
         <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7907,14 +7749,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7936,10 +7778,10 @@
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>220</v>
@@ -7994,7 +7836,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8023,10 +7865,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8052,10 +7894,10 @@
         <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8106,7 +7948,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8135,10 +7977,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8164,13 +8006,13 @@
         <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8220,7 +8062,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8249,10 +8091,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8278,13 +8120,13 @@
         <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8334,7 +8176,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8346,7 +8188,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8363,10 +8205,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8475,14 +8317,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8504,12 +8346,14 @@
         <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8546,17 +8390,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8571,7 +8417,7 @@
         <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8585,16 +8431,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8607,24 +8451,26 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>397</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8672,7 +8518,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8681,13 +8527,13 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8701,14 +8547,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8729,17 +8573,15 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8788,19 +8630,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8817,46 +8659,44 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8904,22 +8744,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8933,10 +8773,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8944,7 +8784,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8953,7 +8793,7 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>77</v>
@@ -8962,12 +8802,14 @@
         <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8992,13 +8834,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9016,10 +8858,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -9045,10 +8887,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9074,14 +8916,12 @@
         <v>239</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9130,7 +8970,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9139,7 +8979,7 @@
         <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -9159,10 +8999,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9170,32 +9010,30 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N64" t="s" s="2">
         <v>412</v>
       </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9220,13 +9058,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9244,13 +9082,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9273,10 +9111,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9302,10 +9140,10 @@
         <v>239</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9371,7 +9209,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9385,14 +9223,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9414,12 +9252,14 @@
         <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9456,17 +9296,19 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9481,7 +9323,7 @@
         <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9495,46 +9337,46 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>421</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9582,7 +9424,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9591,13 +9433,13 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9611,10 +9453,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9622,7 +9464,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9637,13 +9479,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9694,10 +9536,10 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9706,7 +9548,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9723,10 +9565,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9749,20 +9591,22 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>239</v>
+        <v>420</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="R69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9806,7 +9650,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9815,7 +9659,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -9835,10 +9679,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9846,10 +9690,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9861,13 +9705,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9918,13 +9762,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -9947,10 +9791,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9976,12 +9820,14 @@
         <v>239</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10030,7 +9876,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10042,10 +9888,10 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10059,10 +9905,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10085,13 +9931,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>431</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10130,17 +9976,19 @@
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10152,7 +10000,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -10169,14 +10017,12 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10185,7 +10031,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10197,16 +10043,16 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10256,19 +10102,19 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>436</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10285,46 +10131,42 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10372,22 +10214,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10401,21 +10243,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10427,15 +10269,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10484,22 +10328,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10513,48 +10357,50 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>448</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q76" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10598,22 +10444,22 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10627,10 +10473,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10653,13 +10499,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10686,13 +10532,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10710,7 +10556,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -10739,10 +10585,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10765,17 +10611,15 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10824,7 +10668,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10853,10 +10697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10867,7 +10711,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10879,15 +10723,17 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10936,13 +10782,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10965,10 +10811,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10991,13 +10837,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>343</v>
+        <v>452</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11048,7 +10894,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11060,10 +10906,10 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11072,1934 +10918,6 @@
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC81" s="2"/>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC90" s="2"/>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ConceptMap.xlsx
+++ b/StructureDefinition-profile-ConceptMap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7693163-06:00</t>
+    <t>2026-02-20T11:59:20.763612-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ConceptMap|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ConceptMap</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,36 +440,95 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ConceptMap.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.versionAlgorithm|0.0.1-snapshot-3}
+    <t>ConceptMap.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ConceptMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which ConceptMap is more current.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.versionAlgorithm[x]` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Cross-version extension for ConceptMap.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property defines a slot through which additional information can be provided about a map from source -&gt; target.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.property` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ConceptMap.extension:additionalAttribute</t>
+  </si>
+  <si>
+    <t>additionalAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.additionalAttribute}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.additionalAttribute from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An additionalAttribute defines an additional data element found in the source or target data model where the data will come from or be mapped to. Some mappings are based on data in addition to the source data element, where codes in multiple fields are combined to a single field (or vice versa).</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.additionalAttribute` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-approvalDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `ConceptMap.approvalDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-author}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
+Element `ConceptMap.author` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
     <t>ConceptMap.extension:copyrightLabel</t>
   </si>
   <si>
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -479,26 +538,68 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ConceptMap.copyrightLabel` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.approvalDate|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ConceptMap.copyrightLabel` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:editor</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-editor}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ConceptMap.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.approvalDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Cross-version extension for ConceptMap.editor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
+Element `ConceptMap.editor` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the artifact content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `ConceptMap.effectivePeriod` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:endorser</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-endorser}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.endorser from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
+Element `ConceptMap.endorser` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:lastReviewDate</t>
@@ -507,7 +608,7 @@
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.lastReviewDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-lastReviewDate}
 </t>
   </si>
   <si>
@@ -517,26 +618,48 @@
     <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.lastReviewDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.effectivePeriod|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `ConceptMap.lastReviewDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-relatedArtifact}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ConceptMap.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the ConceptMap content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.effectivePeriod` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Cross-version extension for ConceptMap.relatedArtifact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
+Element `ConceptMap.relatedArtifact` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:reviewer</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-reviewer}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.reviewer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
+Element `ConceptMap.reviewer` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.extension:topic</t>
@@ -545,151 +668,38 @@
     <t>topic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.topic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-topic}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ConceptMap.topic from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Descriptions related to the content of the ConceptMap. Topics provide a high-level categorization as well as keywords for the ConceptMap that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.topic` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.author|0.0.1-snapshot-3}
+    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
+Element `ConceptMap.topic` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ConceptMap.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individiual or organization primarily involved in the creation and maintenance of the ConceptMap.</t>
-  </si>
-  <si>
-    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `ConceptMap.author` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.editor|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the ConceptMap.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.editor` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.reviewer|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the ConceptMap.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.reviewer` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.endorser|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the ConceptMap for use in some setting.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.endorser` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.relatedArtifact|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.relatedArtifact` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:property</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.property from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A property defines a slot through which additional information can be provided about a map from source -&gt; target.</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.property` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:additionalAttribute</t>
-  </si>
-  <si>
-    <t>additionalAttribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.additionalAttribute|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.additionalAttribute from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An additionalAttribute defines an additional data element found in the source or target data model where the data will come from or be mapped to. Some mappings are based on data in addition to the source data element, where codes in multiple fields are combined to a single field (or vice versa).</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.additionalAttribute` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Cross-version extension for ConceptMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ConceptMap.versionAlgorithm[x]` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.modifierExtension</t>
@@ -1111,7 +1121,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group}
 </t>
   </si>
   <si>
@@ -1752,7 +1762,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2827,7 +2837,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2943,7 +2953,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3139,7 +3149,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3175,7 +3185,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3255,7 +3265,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>136</v>
@@ -3371,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
@@ -3487,7 +3497,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>136</v>
@@ -3523,7 +3533,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3603,7 +3613,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>136</v>
@@ -3719,7 +3729,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -3755,7 +3765,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3845,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -3951,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>136</v>
@@ -4067,7 +4077,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>136</v>
@@ -4183,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>
@@ -4219,7 +4229,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4299,7 +4309,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>136</v>

--- a/StructureDefinition-profile-ConceptMap.xlsx
+++ b/StructureDefinition-profile-ConceptMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.763612-06:00</t>
+    <t>2026-02-21T13:36:54.1697192-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ConceptMap</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ConceptMap|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>additionalAttribute</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.additionalAttribute}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.additionalAttribute|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -480,226 +480,6 @@
   </si>
   <si>
     <t>Element `ConceptMap.additionalAttribute` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-approvalDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
-Element `ConceptMap.approvalDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-author}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
-Element `ConceptMap.author` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ConceptMap.copyrightLabel` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-editor}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
-Element `ConceptMap.editor` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-effectivePeriod}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the artifact content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
-Element `ConceptMap.effectivePeriod` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-endorser}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
-Element `ConceptMap.endorser` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-lastReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
-Element `ConceptMap.lastReviewDate` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-relatedArtifact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
-Element `ConceptMap.relatedArtifact` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-reviewer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
-Element `ConceptMap.reviewer` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:topic</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-topic}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.topic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
-Element `ConceptMap.topic` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
-  </si>
-  <si>
-    <t>ConceptMap.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ConceptMap.versionAlgorithm[x]` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.modifierExtension</t>
@@ -1112,23 +892,13 @@
     <t>ConceptMap.group.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ConceptMap.group.extension:group</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ConceptMap.group from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ConceptMap.group` has is mapped to FHIR R4 element `ConceptMap.group`, but has no comparisons.</t>
   </si>
   <si>
     <t>ConceptMap.group.modifierExtension</t>
@@ -1209,12 +979,6 @@
     <t>ConceptMap.group.element.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>ConceptMap.group.element.modifierExtension</t>
   </si>
   <si>
@@ -1261,6 +1025,22 @@
     <t>ConceptMap.group.element.target.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.target.extension:property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.property|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.target.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A property value for this source -&gt; target mapping.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.element.target.property` has a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.target.modifierExtension</t>
   </si>
   <si>
@@ -1292,6 +1072,46 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/concept-map-equivalence|4.0.1</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.element.target.equivalence.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.element.target.equivalence.extension</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.element.target.equivalence.extension:noMap</t>
+  </si>
+  <si>
+    <t>noMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.noMap|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.noMap from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If noMap = true this indicates that no mapping to a target concept exists for this source concept.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.element.noMap` is mapped to FHIR R4 element `ConceptMap.group.element.target.equivalence` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.element.target.equivalence.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>ConceptMap.group.element.target.comment</t>
@@ -1322,6 +1142,26 @@
     <t>ConceptMap.group.element.target.dependsOn.extension</t>
   </si>
   <si>
+    <t>ConceptMap.group.element.target.dependsOn.extension:dependsOn</t>
+  </si>
+  <si>
+    <t>dependsOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.element.target.dependsOn|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.element.target.dependsOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A set of additional dependencies for this mapping to hold. This mapping is only applicable if the specified data attribute can be resolved, and it has the specified value.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.element.target.dependsOn` is mapped to FHIR R4 element `ConceptMap.group.element.target.dependsOn` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `ConceptMap.group.element.target.product` because `ConceptMap.group.element.target.product` is defined as a content reference to `ConceptMap.group.element.target.dependsOn`.</t>
+  </si>
+  <si>
     <t>ConceptMap.group.element.target.dependsOn.modifierExtension</t>
   </si>
   <si>
@@ -1394,6 +1234,25 @@
   </si>
   <si>
     <t>ConceptMap.group.unmapped.extension</t>
+  </si>
+  <si>
+    <t>ConceptMap.group.unmapped.extension:relationship</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.group.unmapped.relationship|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ConceptMap.group.unmapped.relationship from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The default relationship value to apply between the source and target concepts when the source code is unmapped and the mode is 'fixed' or 'use-source-code'.</t>
+  </si>
+  <si>
+    <t>Element `ConceptMap.group.unmapped.relationship` has a context of ConceptMap.group.unmapped based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>ConceptMap.group.unmapped.modifierExtension</t>
@@ -1743,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN80"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1752,7 +1611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.8515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.30859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1762,7 +1621,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3056,43 +2915,43 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3140,7 +2999,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3155,7 +3014,7 @@
         <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3169,14 +3028,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3185,7 +3042,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3194,21 +3051,23 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3256,28 +3115,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3285,14 +3144,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3310,21 +3167,23 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3372,43 +3231,41 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3417,7 +3274,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3426,19 +3283,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3488,28 +3345,28 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3517,14 +3374,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3542,21 +3397,23 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3604,19 +3461,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3633,14 +3490,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3649,7 +3504,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3658,19 +3513,19 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3720,25 +3575,25 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3749,20 +3604,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3771,22 +3624,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3812,13 +3665,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3836,28 +3689,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3865,14 +3718,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3881,7 +3732,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3890,21 +3741,23 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3952,28 +3805,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3981,23 +3834,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4006,19 +3857,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4068,28 +3919,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4097,14 +3948,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4113,7 +3962,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4122,21 +3971,23 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4184,28 +4035,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4213,14 +4064,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4229,7 +4078,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4238,19 +4087,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4300,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4312,13 +4161,13 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4329,46 +4178,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4416,25 +4263,25 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4445,10 +4292,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4459,7 +4306,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4471,19 +4318,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4532,13 +4379,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4550,10 +4397,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4561,10 +4408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4575,7 +4422,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4587,20 +4434,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4624,13 +4469,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4648,13 +4493,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4666,21 +4511,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4700,19 +4545,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4762,7 +4607,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4780,25 +4625,25 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4814,22 +4659,22 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4878,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4887,7 +4732,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4896,21 +4741,21 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4933,16 +4778,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4992,7 +4837,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5010,7 +4855,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5021,10 +4866,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5032,7 +4877,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -5041,22 +4886,22 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5082,13 +4927,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5106,10 +4951,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -5124,10 +4969,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5135,10 +4980,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5149,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5158,23 +5003,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5222,13 +5063,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5240,10 +5081,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5251,14 +5092,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5274,20 +5115,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>277</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5336,7 +5175,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5348,16 +5187,16 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5372,14 +5211,14 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5388,10 +5227,10 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>281</v>
@@ -5400,11 +5239,9 @@
         <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5452,28 +5289,28 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5481,14 +5318,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5501,24 +5338,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5566,7 +5405,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5578,13 +5417,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5595,10 +5434,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5621,16 +5460,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5680,7 +5519,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5695,10 +5534,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5709,10 +5548,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5723,7 +5562,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5732,23 +5571,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5796,13 +5633,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5814,7 +5651,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5825,10 +5662,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5839,7 +5676,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5848,19 +5685,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5886,13 +5723,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5910,13 +5747,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5928,7 +5765,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5939,10 +5776,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5965,16 +5802,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6024,7 +5861,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6042,32 +5879,32 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6079,20 +5916,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6140,13 +5975,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6158,21 +5993,21 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6192,20 +6027,18 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6254,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6266,10 +6099,10 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6283,21 +6116,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6306,19 +6139,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6368,22 +6201,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6397,14 +6230,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6417,22 +6250,26 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6480,7 +6317,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6492,10 +6329,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6509,10 +6346,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6535,13 +6372,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6592,7 +6429,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6604,10 +6441,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6621,10 +6458,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6635,7 +6472,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6647,15 +6484,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6692,29 +6531,31 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6731,14 +6572,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6759,16 +6598,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6818,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6827,10 +6666,10 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6847,46 +6686,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6934,22 +6769,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6963,10 +6798,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6977,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6989,17 +6824,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>131</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7036,31 +6869,29 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7077,12 +6908,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7091,7 +6924,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7103,16 +6936,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7162,19 +6995,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7191,44 +7024,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7276,22 +7111,22 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7305,10 +7140,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7331,17 +7166,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7390,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7419,21 +7252,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7445,16 +7278,16 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7504,13 +7337,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7533,10 +7366,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7544,7 +7377,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7553,21 +7386,23 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7592,13 +7427,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7616,10 +7451,10 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -7628,10 +7463,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7645,21 +7480,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7671,17 +7506,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7730,22 +7563,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7759,14 +7592,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7779,26 +7612,22 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7834,19 +7663,17 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7861,7 +7688,7 @@
         <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7875,12 +7702,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7901,15 +7730,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7958,19 +7789,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7987,10 +7818,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8013,17 +7844,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8072,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8084,7 +7913,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8101,10 +7930,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8115,7 +7944,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8127,17 +7956,15 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8186,19 +8013,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8215,10 +8042,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8229,7 +8056,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8241,13 +8068,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8298,22 +8125,22 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8327,21 +8154,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8353,17 +8180,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8412,22 +8237,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8441,14 +8266,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8461,26 +8286,22 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8516,19 +8337,17 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8543,7 +8362,7 @@
         <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8557,12 +8376,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8571,7 +8392,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8583,15 +8404,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8640,19 +8463,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8669,44 +8492,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8754,22 +8579,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>288</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8783,10 +8608,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8803,23 +8628,21 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8844,13 +8667,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8868,7 +8691,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
@@ -8897,10 +8720,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8923,20 +8746,22 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8980,7 +8805,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8989,7 +8814,7 @@
         <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -9009,10 +8834,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9020,10 +8845,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9035,13 +8860,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9092,13 +8917,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9121,10 +8946,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9147,15 +8972,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9204,7 +9031,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9216,10 +9043,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9233,14 +9060,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9259,17 +9086,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9318,7 +9143,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9330,10 +9155,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9347,46 +9172,44 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9434,22 +9257,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9463,10 +9286,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9474,7 +9297,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -9489,13 +9312,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9546,10 +9369,10 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
@@ -9558,10 +9381,10 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9575,10 +9398,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9589,7 +9412,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9601,22 +9424,20 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>421</v>
+        <v>131</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>422</v>
+        <v>132</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9648,31 +9469,29 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>419</v>
+        <v>283</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9689,18 +9508,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>86</v>
@@ -9709,21 +9530,23 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9772,19 +9595,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9801,44 +9624,46 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9886,22 +9711,22 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>427</v>
+        <v>288</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9915,10 +9740,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9926,10 +9751,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9941,13 +9766,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9974,13 +9799,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9998,13 +9823,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -10027,10 +9852,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10053,17 +9878,15 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10112,7 +9935,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10124,7 +9947,7 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>436</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10141,10 +9964,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10167,15 +9990,17 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10224,7 +10049,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10236,10 +10061,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10253,21 +10078,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10279,17 +10104,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>130</v>
+        <v>409</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10338,22 +10161,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10362,572 +10185,6 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
         <v>77</v>
       </c>
     </row>
